--- a/Core Modules Planning.xlsx
+++ b/Core Modules Planning.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\My PC (LAPTOP-RAHTADP7)\Documents\NUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zouru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F590949-7721-4B88-8695-619BC8CCCBC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2D16B3-E1BB-41B7-B2B8-0037C00DDF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84C95F28-E70C-4630-B3E9-403CE61C7D92}"/>
+    <workbookView xWindow="18435" yWindow="0" windowWidth="19920" windowHeight="21000" xr2:uid="{84C95F28-E70C-4630-B3E9-403CE61C7D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,14 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
   <si>
     <t>DSA1101</t>
   </si>
   <si>
-    <t>CS2102</t>
-  </si>
-  <si>
     <t>CORE MODS</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>MA2311</t>
   </si>
   <si>
-    <t>ST3233</t>
-  </si>
-  <si>
     <t>ST3248</t>
   </si>
   <si>
@@ -256,47 +250,116 @@
     <t>DAO2703</t>
   </si>
   <si>
-    <t>DYOM ML mod</t>
-  </si>
-  <si>
     <t>Total MCs (core)</t>
   </si>
   <si>
-    <t>BT1101</t>
-  </si>
-  <si>
-    <t>BT2102</t>
-  </si>
-  <si>
     <t>2GE + 6UE, only 3 * 1k mod              , 2 *upip +  1 LAG 2000 + cs2102 + 2 UE + 2 GE,             DSA4211 (SEM1 ), DSA4212(SEM2),                                    DSA4263(SEM2) , 64(SEM1),            can avoid ST3239, no unlock and exceed 3 core</t>
   </si>
   <si>
+    <t>FIN2704</t>
+  </si>
+  <si>
+    <t>BT1101/ ACC1701X/ DAO2703</t>
+  </si>
+  <si>
+    <t>ACC1701X</t>
+  </si>
+  <si>
+    <t>ST3239</t>
+  </si>
+  <si>
+    <t>COS2000</t>
+  </si>
+  <si>
+    <t>LAG2201</t>
+  </si>
+  <si>
+    <t>ST4248</t>
+  </si>
+  <si>
+    <t>DSA4212</t>
+  </si>
+  <si>
     <t>NM2213</t>
   </si>
   <si>
-    <t>FIN2704</t>
-  </si>
-  <si>
-    <t>BT1101/ ACC1701X/ DAO2703</t>
-  </si>
-  <si>
-    <t>ACC1701X</t>
-  </si>
-  <si>
-    <t>ST3239</t>
-  </si>
-  <si>
-    <t>NM2213 / FIN2704</t>
-  </si>
-  <si>
-    <t>COS2000</t>
+    <t>if NUS fks me up</t>
+  </si>
+  <si>
+    <t>ST4234</t>
+  </si>
+  <si>
+    <t>IT2002(sem1)</t>
+  </si>
+  <si>
+    <t>ST3232</t>
+  </si>
+  <si>
+    <t>GET1029</t>
+  </si>
+  <si>
+    <t>best case</t>
+  </si>
+  <si>
+    <t>pt- intern</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>study ahead(1st mth) + intern</t>
+  </si>
+  <si>
+    <t>aws assocc +  intern + study 3102</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>sql , pandas hackerrank</t>
+  </si>
+  <si>
+    <t>DAO1704</t>
+  </si>
+  <si>
+    <t>DAO2702</t>
+  </si>
+  <si>
+    <t>worse case</t>
+  </si>
+  <si>
+    <t>worst case LOA</t>
+  </si>
+  <si>
+    <t>LOA intern</t>
+  </si>
+  <si>
+    <t>,--y5s1</t>
+  </si>
+  <si>
+    <t>summer school + intern</t>
+  </si>
+  <si>
+    <t>DAO1704x</t>
+  </si>
+  <si>
+    <t>ST1131</t>
+  </si>
+  <si>
+    <t>DSA4264 / DSA4263</t>
+  </si>
+  <si>
+    <t>ST4253</t>
+  </si>
+  <si>
+    <t>DSA4266</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +377,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,15 +411,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,38 +746,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB89F8E7-04C6-4E53-BC2D-3A2B97487263}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -704,610 +794,1036 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <f>4*E10</f>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <f>4*F10</f>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <f>96-16-(4*E11)</f>
-        <v>48</v>
-      </c>
-      <c r="I9">
-        <f>96-16-(4*F11)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I9" t="str">
+        <f xml:space="preserve"> IF(96-(4*E11)-(4*F11)&lt;=0, "COMPLETE", 96-(4*E11)-(4*F11))</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <f>COUNTA(A2:A81)-E13</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F10" cm="1">
-        <f t="array" ref="F10">COUNTA(B3:B81)-F13+SUM(IF(B3:B81="dsa4299",3,0))</f>
-        <v>25</v>
+        <f t="array" ref="F10">COUNTA(B2:B91)-F13+SUM(IF(B2:B91="dsa4299",3,0))</f>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <f xml:space="preserve"> H9/4</f>
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <f xml:space="preserve"> 24-E11-F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I10" t="str">
+        <f xml:space="preserve"> IF(24-E11-F11&lt;=0, "COMPLETE", 24-E11-F11)</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11" xml:space="preserve"> SUM(COUNTIF(A2:A81,{"*DSA*","*CS*","*ST*","*MA*"})) - SUM(COUNTIF(A2:A20,{"*CS1231*","*CS2102*"}))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" cm="1">
-        <f t="array" ref="F11" xml:space="preserve"> SUM(COUNTIF(B3:B81,{"*DSA*","*CS*","*ST*","*MA*"})) - SUM(COUNTIF(B3:B81,{"*CS1231*","*CS2102*"})) +SUM(IF(B3:B81="DSA4299",3,0))</f>
-        <v>16</v>
+        <f t="array" ref="F11" xml:space="preserve"> SUM(COUNTIF(B2:B91,{"*DSA*","*CS*","*ST*","*MA*"})) - SUM(COUNTIF(B2:B91,{"*CS1231*","*CS2102*"})) +SUM(IF(B2:B91="DSA4299",3,0))</f>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <f>H10/F13</f>
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <f>I10/F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+      <c r="I11" t="str">
+        <f>IF((24-E11-F11)/F13&lt;=0, "COMPLETE", (24-E11-F11)/F13)</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12" xml:space="preserve"> SUM(COUNTIF(A2:A81,{"*DSA*","*CS*","*ST*","*MA*"}))/E13</f>
         <v>3</v>
       </c>
       <c r="F12" cm="1">
-        <f t="array" ref="F12" xml:space="preserve"> SUM(COUNTIF(B3:B81,{"*DSA*","*CS*","*ST*","*MA*"}))/F13</f>
-        <v>3.25</v>
+        <f t="array" ref="F12" xml:space="preserve"> SUM(COUNTIF(B2:B91,{"*DSA*","*CS*","*ST*","*MA*"}))/F13</f>
+        <v>2.75</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <f>5-E14</f>
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <f>H12-F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f xml:space="preserve"> IF(H12-F14&lt;=0, "COMPLETE", H12-F14)</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <f>COUNTIF(A2:A81,"*.--*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <f>COUNTIF(B3:B81,"*.--*")</f>
+        <f>COUNTIF(B2:B91,"*.--*")</f>
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <f>9-E15</f>
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <f>H13-F15</f>
-        <v>-1</v>
-      </c>
-      <c r="K13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(H13-F15&lt;=0, "COMPLETE", H13-F15)</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14" xml:space="preserve"> SUM(COUNTIF(A2:A81,{"*GE*"}))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" cm="1">
-        <f t="array" ref="F14" xml:space="preserve"> SUM(COUNTIF(B3:B82,{"*GE*"}))</f>
-        <v>2</v>
+        <f t="array" ref="F14" xml:space="preserve"> SUM(COUNTIF(B2:B92,{"*GE*"}))</f>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <f>H13/F13</f>
-        <v>1.5</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">E10-E14-SUM(COUNTIF(A2:A81,{"*DSA*","*CS*","*ST*","*MA*"}))-2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <f>F10-F14-F11</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <f>15-E16</f>
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <f>H15-F16</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(H15-F16&lt;=0, "COMPLETE", H15-F16)</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <f>COUNTIF( A2:A80, "*1???*")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <f>COUNTIF( B3:B81, "*1???*")</f>
+        <f>COUNTIF( B2:B91, "*1???*")</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5">
+        <f xml:space="preserve"> E10+F10</f>
+        <v>44</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="O23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="4">
-        <f xml:space="preserve"> E10+F10</f>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="O49" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="7"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="O50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" s="7"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="O51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" s="7"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" s="7"/>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+      <c r="O56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="I60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s">
+        <v>72</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" t="s">
+        <v>82</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="I66" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" t="s">
+        <v>63</v>
+      </c>
+      <c r="O67" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="68" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" t="s">
+        <v>81</v>
+      </c>
+      <c r="O68" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="70" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="I71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" t="s">
+        <v>46</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27" xml:space="preserve"> SUM(IF(A27:D27="dsa4299",4,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>95</v>
+      </c>
+      <c r="P76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="P48:P53"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O70:P70"/>
     <mergeCell ref="K13:M26"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,21 +1832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D971D3DB84CD64F8A82C41B93A609B5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1acddf25226b6d06ce5d8cdfdb23aa74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b30023b0-ae5d-4856-b972-b74d01af1588" xmlns:ns4="841d0cfd-fe5c-4c47-8d22-db234b3ffdce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4751225d5df22c10cba11c81ea783ed" ns3:_="" ns4:_="">
     <xsd:import namespace="b30023b0-ae5d-4856-b972-b74d01af1588"/>
@@ -1515,40 +2016,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03647BA-63EE-4B5E-BD65-ABD22C2BD2DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="841d0cfd-fe5c-4c47-8d22-db234b3ffdce"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b30023b0-ae5d-4856-b972-b74d01af1588"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB7D2E7-AD33-4B5E-9AA2-A1B4995704D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73916D2D-79AB-4A52-B897-C6A1E4605B58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="b30023b0-ae5d-4856-b972-b74d01af1588"/>
     <ds:schemaRef ds:uri="841d0cfd-fe5c-4c47-8d22-db234b3ffdce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1557,4 +2049,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03647BA-63EE-4B5E-BD65-ABD22C2BD2DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="841d0cfd-fe5c-4c47-8d22-db234b3ffdce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b30023b0-ae5d-4856-b972-b74d01af1588"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB7D2E7-AD33-4B5E-9AA2-A1B4995704D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Core Modules Planning.xlsx
+++ b/Core Modules Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zouru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2D16B3-E1BB-41B7-B2B8-0037C00DDF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE76BF7-1194-4E43-82AB-58F26017DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="0" windowWidth="19920" windowHeight="21000" xr2:uid="{84C95F28-E70C-4630-B3E9-403CE61C7D92}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
   <si>
     <t>DSA1101</t>
   </si>
@@ -283,9 +283,6 @@
     <t>NM2213</t>
   </si>
   <si>
-    <t>if NUS fks me up</t>
-  </si>
-  <si>
     <t>ST4234</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>winter</t>
-  </si>
-  <si>
-    <t>sql , pandas hackerrank</t>
   </si>
   <si>
     <t>DAO1704</t>
@@ -748,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB89F8E7-04C6-4E53-BC2D-3A2B97487263}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F19:F20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -890,16 +884,14 @@
       <c r="O7" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1003,7 +995,7 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1042,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1163,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -1278,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -1326,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -1426,7 +1418,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1447,7 +1439,7 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
@@ -1460,7 +1452,7 @@
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
@@ -1468,18 +1460,18 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P47" s="6"/>
     </row>
@@ -1490,15 +1482,11 @@
       <c r="J48" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="K48" s="7"/>
       <c r="O48" t="s">
         <v>34</v>
       </c>
-      <c r="P48" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
@@ -1554,28 +1542,28 @@
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K53" s="7"/>
       <c r="O53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P53" s="7"/>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.25">
       <c r="J55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -1610,16 +1598,16 @@
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.25">
@@ -1652,7 +1640,7 @@
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I61" t="s">
         <v>63</v>
@@ -1661,7 +1649,7 @@
         <v>66</v>
       </c>
       <c r="O61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.25">
@@ -1672,15 +1660,15 @@
         <v>37</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" t="s">
+        <v>81</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -1710,12 +1698,12 @@
         <v>45</v>
       </c>
       <c r="O65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s">
         <v>66</v>
@@ -1729,7 +1717,7 @@
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s">
         <v>63</v>
@@ -1743,7 +1731,7 @@
         <v>70</v>
       </c>
       <c r="J68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O68" t="s">
         <v>46</v>
@@ -1760,7 +1748,7 @@
         <v>38</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P70" s="6"/>
     </row>
@@ -1775,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="O71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="4:16" x14ac:dyDescent="0.25">
@@ -1800,7 +1788,7 @@
     </row>
     <row r="76" spans="4:16" x14ac:dyDescent="0.25">
       <c r="O76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P76" t="s">
         <v>70</v>
@@ -1832,6 +1820,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D971D3DB84CD64F8A82C41B93A609B5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1acddf25226b6d06ce5d8cdfdb23aa74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b30023b0-ae5d-4856-b972-b74d01af1588" xmlns:ns4="841d0cfd-fe5c-4c47-8d22-db234b3ffdce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4751225d5df22c10cba11c81ea783ed" ns3:_="" ns4:_="">
     <xsd:import namespace="b30023b0-ae5d-4856-b972-b74d01af1588"/>
@@ -2016,22 +2019,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB7D2E7-AD33-4B5E-9AA2-A1B4995704D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03647BA-63EE-4B5E-BD65-ABD22C2BD2DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b30023b0-ae5d-4856-b972-b74d01af1588"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="841d0cfd-fe5c-4c47-8d22-db234b3ffdce"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73916D2D-79AB-4A52-B897-C6A1E4605B58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2049,29 +2062,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03647BA-63EE-4B5E-BD65-ABD22C2BD2DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="841d0cfd-fe5c-4c47-8d22-db234b3ffdce"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b30023b0-ae5d-4856-b972-b74d01af1588"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB7D2E7-AD33-4B5E-9AA2-A1B4995704D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>